--- a/MainTop/07.08.2025 Таня ВБ/спрос_print_sorted_упаковано.xlsx
+++ b/MainTop/07.08.2025 Таня ВБ/спрос_print_sorted_упаковано.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\07.08.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8671A71-EEF3-42B2-ABDC-9BF4BF989526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7014C993-6881-405D-BA08-B90E1C34E498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,17 +308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFACD"/>
+        <fgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -349,14 +345,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +658,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,80 +2312,80 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="5">
-        <v>12</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="4">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>32</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>0.63</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="5">
-        <v>12</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="4">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>32</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <v>0.63</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>8</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>32</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>0.63</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="4" t="s">
         <v>12</v>
       </c>
     </row>
